--- a/medicine/Bioéthique/March_for_Women's_Lives/March_for_Women's_Lives.xlsx
+++ b/medicine/Bioéthique/March_for_Women's_Lives/March_for_Women's_Lives.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>March_for_Women%27s_Lives</t>
+          <t>March_for_Women's_Lives</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">March for Women's Lives, la marche pour la vie des femmes est une manifestation pour les droits des femmes qui s'est tenue le 25 avril 2004 sur le National Mall à Washington. C'est la première manifestation pour le droit à l'avortement depuis 1992.
-Il n'y a pas eu d'incidents violents. Les manifestants Pro-vie étaient présents à certains endroits du parcours emprunté par la marche[1].
+Il n'y a pas eu d'incidents violents. Les manifestants Pro-vie étaient présents à certains endroits du parcours emprunté par la marche.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>March_for_Women%27s_Lives</t>
+          <t>March_for_Women's_Lives</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Thèmes de la manifestation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Initiée au départ comme une manifestation pour le droit à l'avortement, elle est élargie aux droits des femmes en général, y compris leur droit à disposer de leur corps, le droit à l'éducation sexuelle, à la contraception.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>March_for_Women%27s_Lives</t>
+          <t>March_for_Women's_Lives</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La manifestation est organisée par un ensemble d'associations des droits des femmes et des groupes de justice sociale. À l'initiative de ce mouvement se trouve sept associations : 
 Black Women's Health Imperative
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>March_for_Women%27s_Lives</t>
+          <t>March_for_Women's_Lives</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,14 +598,16 @@
           <t>Participation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'United States Park Police ne fait plus d'estimations officielles de la fréquentation depuis la controverse de la Million Man March en 1994, tellement les estimations officielles sont souvent spéculatives. 
-Les organisateurs de la marche estiment que 1,15 million de personnes y ont participé, d'autres estimations proposent plus de 800 000 manifestants[2]. 
-Quel que soit le nombre retenu, c'est la plus grande manifestation de protestation de l'histoire des États-Unis[3],[4]. 
+Les organisateurs de la marche estiment que 1,15 million de personnes y ont participé, d'autres estimations proposent plus de 800 000 manifestants. 
+Quel que soit le nombre retenu, c'est la plus grande manifestation de protestation de l'histoire des États-Unis,. 
 Plusieurs facteurs ont contribué à cette participation massive, en particulier ce que les organisateurs ont appelé « la colère contre la politique anti-femmes imposée par le président Bush », en particulier :
-l'adoption de la loi Partial-Birth Abortion Ban en 2003. Loi criminalisant une méthode d'avortement pratiquée après la 12e semaine de grossesse. La loi l'autorise pour préserver la vie de la mère mais pas son état de santé. Il s'agit de la première loi restreignant le droit à l'avortement depuis 1973[3];
-le rétablissement de la politique dite « Règle du Bâillon mondial » (ou « Politique de Mexico »). Cette loi supprime toute subvention publique aux ONG étrangères pratiquant des avortements légaux, faisant pression auprès de leur propre gouvernement pour réformer des lois sur l'avortement ou même offrant simplement des conseils ou recommandations sur l'avortement[5].
+l'adoption de la loi Partial-Birth Abortion Ban en 2003. Loi criminalisant une méthode d'avortement pratiquée après la 12e semaine de grossesse. La loi l'autorise pour préserver la vie de la mère mais pas son état de santé. Il s'agit de la première loi restreignant le droit à l'avortement depuis 1973;
+le rétablissement de la politique dite « Règle du Bâillon mondial » (ou « Politique de Mexico »). Cette loi supprime toute subvention publique aux ONG étrangères pratiquant des avortements légaux, faisant pression auprès de leur propre gouvernement pour réformer des lois sur l'avortement ou même offrant simplement des conseils ou recommandations sur l'avortement.
 l'imminence de la campagne présidentielle;
 l'invitation de groupes représentants un vaste éventail d'intérêts ;
 une campagne de publicité agressive et le recours à des services Internet tels que Meetup pour coordonner les participants de la marche.</t>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>March_for_Women%27s_Lives</t>
+          <t>March_for_Women's_Lives</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Événements et participants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rassemblement sur le Mall a commencé à 10 heures. La manifestation est officiellement ouverte par la soprano Margie Adam qui chante "We Shall Go Forth», le spiritual qu'elle a écrit lors de la marche pour les droits à l'avortement, 25 ans plus tôt.
 Près de 120 personnalités politiques et artistes sont intervenues à la tribune pour des discours, entre autres : Eleanor Smeal présidente de Feminist Majority Foundation; Gloria Steinem fondatrice de Choice USA, Eleanor Holmes Norton représentante du district de Colombia au Congrès; toutes ont alerté sur la politique mise en œuvre par la Maison Blanche et le Congrès pour restreindre l'accès des femmes à l'avortement et aux soins gynécologiques. Le seul choix prôné étant l'abstinence.
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>March_for_Women%27s_Lives</t>
+          <t>March_for_Women's_Lives</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,11 +679,13 @@
           <t>Les contre-manifestants</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les contre-manifestants Pro-vie, certains affiliés à Randall Terry de "Operation Witness", attentent la marche sur une partie du parcours le long de Pennsylvania Avenue[1]. Randall Terry estime qu'il y a «plus d'un millier de» contre-manifestants[6] ; l'écrivain pro-choix, Jo Freeman estime qu'ils sont « environ 300[1] »  et le Washington Post écrit qu'ils sont «des dizaines[7] ».
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les contre-manifestants Pro-vie, certains affiliés à Randall Terry de "Operation Witness", attentent la marche sur une partie du parcours le long de Pennsylvania Avenue. Randall Terry estime qu'il y a «plus d'un millier de» contre-manifestants ; l'écrivain pro-choix, Jo Freeman estime qu'ils sont « environ 300 »  et le Washington Post écrit qu'ils sont «des dizaines ».
 Certains montrent des photos de fœtus avortés, d'autres prient ou crient des slogans.
-Seize manifestants de la Christian Defense Coalition sont arrêtés pour « manifestation sans permis» car ils ont franchi les barrages de police dans la zone désignée pour la marche[7].
+Seize manifestants de la Christian Defense Coalition sont arrêtés pour « manifestation sans permis» car ils ont franchi les barrages de police dans la zone désignée pour la marche.
 </t>
         </is>
       </c>
